--- a/ubc&&cmd打点测试工具开发排期.xlsx
+++ b/ubc&&cmd打点测试工具开发排期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ubc&amp;&amp;cmd打点测试工具开发排期" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>9月13日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体功能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员分工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：张杰
+后端：彭飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：张杰
+后端：彭飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,20 +64,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ubc打点工具初步功能实现：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1、后端拦截并本地存储ubc打点日志，每条id打点最多存储40条，并按照时间戳逆序存储；
-2、前端可显示指定id打点的数据模板，并可显示实时拦截的该id打点数据。</t>
+      <t>UBC打点工具初步功能实现</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,21 +78,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cmd和ubc打点工具初步功能实现：</t>
+      <t>CMD和UBC打点工具初步功能实现</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1、后端拦截并本地存储ubc/cmd打点日志，每条id打点最多存储40条，并按照时间戳逆序存储；
-2、前端支持cmd和ubc打点方式的选择、指定某个打点id，显示打点数据模板和选定类型和id的实时打点数据。</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、后端拦截ubc打点请求，解析目标id打点数据并本地存储，每条id打点最多存储40条，并按照时间戳逆序存储；
+2、前端可显示指定id打点的数据模板，并可显示实时拦截的该id打点数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、后端拦截打点请求，解析并本地存储ubc/cmd打点日志，每条id打点最多存储40条，并按照时间戳逆序存储；
+2、前端显示打点数据模板和实时的打点数据。
+   支持如下打点类型筛选：
+   ① 手机平台：Android、iOS
+   ② 打点方式：CMD、UBC
+   ③ 指定某个打点id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,17 +196,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,14 +227,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -558,59 +575,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="60">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="75">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="105">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
